--- a/Plan Health.xlsx
+++ b/Plan Health.xlsx
@@ -26,12 +26,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +52,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,11 +351,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
